--- a/ope.ed.gov/2012/arrests-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/arrests-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -547,34 +544,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -582,19 +603,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>787.0</v>
+        <v>4694.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -611,19 +632,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -640,19 +661,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>831.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -669,19 +690,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>1759.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -698,19 +719,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -730,13 +751,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>8258.0</v>
@@ -759,13 +780,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>8258.0</v>
@@ -774,7 +795,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H9">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I9">
         <v>0.0</v>
@@ -785,25 +806,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>8258.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
       </c>
       <c s="1" r="H10">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I10">
         <v>0.0</v>
@@ -814,19 +835,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>4420.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -843,19 +864,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>1519.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -872,19 +893,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B13">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -901,19 +922,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B14">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -933,13 +954,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>1144.0</v>
@@ -959,19 +980,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -988,19 +1009,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>945.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1017,19 +1038,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>1510.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1038,7 +1059,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I18">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1046,19 +1067,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1067,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I19">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1075,19 +1096,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232195.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>7520.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1104,28 +1125,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G21">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H21">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -1133,28 +1154,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>4765.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G22">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H22">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1162,19 +1183,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232308.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>794.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1191,28 +1212,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
       </c>
       <c s="1" r="H24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,25 +1241,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
       </c>
       <c s="1" r="H25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I25">
         <v>1.0</v>
@@ -1249,19 +1270,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>1048.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1270,7 +1291,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1278,28 +1299,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
       </c>
       <c s="1" r="H27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I27">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -1310,13 +1331,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
         <v>4834.0</v>
@@ -1325,10 +1346,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1339,13 +1360,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
         <v>4834.0</v>
@@ -1365,19 +1386,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>4834.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1394,19 +1415,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>2756.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1415,7 +1436,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -1423,19 +1444,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B32">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>3702.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1444,7 +1465,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I32">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1452,22 +1473,22 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G33">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H33">
         <v>0.0</v>
@@ -1481,28 +1502,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232867.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>5083.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G34">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H34">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="I34">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -1513,25 +1534,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
         <v>51864.0</v>
       </c>
       <c s="1" r="G35">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="H35">
-        <v>24.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="I35">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="36">
@@ -1542,25 +1563,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
         <v>51864.0</v>
       </c>
       <c s="1" r="G36">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H36">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="I36">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1571,25 +1592,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
         <v>51864.0</v>
       </c>
       <c s="1" r="G37">
+        <v>5.0</v>
+      </c>
+      <c s="1" r="H37">
+        <v>35.0</v>
+      </c>
+      <c s="1" r="I37">
         <v>4.0</v>
-      </c>
-      <c s="1" r="H37">
-        <v>18.0</v>
-      </c>
-      <c s="1" r="I37">
-        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1600,25 +1621,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
         <v>51864.0</v>
       </c>
       <c s="1" r="G38">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>35.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="I38">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1629,13 +1650,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>51864.0</v>
@@ -1644,7 +1665,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H39">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I39">
         <v>0.0</v>
@@ -1658,13 +1679,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
         <v>51864.0</v>
@@ -1687,13 +1708,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>51864.0</v>
@@ -1716,13 +1737,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>51864.0</v>
@@ -1745,13 +1766,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
         <v>51864.0</v>
@@ -1774,13 +1795,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>51864.0</v>
@@ -1789,10 +1810,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H44">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I44">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1803,13 +1824,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
         <v>51864.0</v>
@@ -1818,10 +1839,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1832,13 +1853,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
         <v>51864.0</v>
@@ -1861,13 +1882,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
         <v>51864.0</v>
@@ -1887,19 +1908,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B48">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>51864.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -1916,19 +1937,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B49">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -1945,19 +1966,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>3079.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -1974,19 +1995,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2003,19 +2024,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>9573.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2032,19 +2053,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233310.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>3711.0</v>
+        <v>6042.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2061,19 +2082,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2090,19 +2111,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>2766.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2119,19 +2140,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233718.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>739.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2148,19 +2169,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B57">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -2177,19 +2198,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B58">
-        <v>440341.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>1557.0</v>
+        <v>10942.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -2206,19 +2227,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -2238,13 +2259,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
         <v>30134.0</v>
@@ -2264,19 +2285,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>30134.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -2296,13 +2317,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
         <v>5093.0</v>
@@ -2322,19 +2343,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>5093.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -2351,19 +2372,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>4361.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -2380,19 +2401,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B65">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>23907.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -2412,13 +2433,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>31445.0</v>
@@ -2438,19 +2459,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B67">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>31445.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -2467,25 +2488,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B68">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
       </c>
       <c s="1" r="H68">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I68">
         <v>0.0</v>
@@ -2496,25 +2517,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
       </c>
       <c s="1" r="H69">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I69">
         <v>0.0</v>
@@ -2525,19 +2546,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B70">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>31087.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -2554,19 +2575,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B71">
-        <v>234155.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
-        <v>6208.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -2583,19 +2604,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>234137.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
-        <v>540.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -2612,19 +2633,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>8440.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -2641,19 +2662,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
-        <v>2302.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -2662,35 +2683,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I74">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c s="1" r="A75">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B75">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C75">
-        <v>154</v>
-      </c>
-      <c s="1" r="D75">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E75">
-        <v>155</v>
-      </c>
-      <c s="1" r="F75">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G75">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H75">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I75">
         <v>0.0</v>
       </c>
     </row>
